--- a/specification/nederveen holes.xlsx
+++ b/specification/nederveen holes.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351C82C7-1CF6-4708-9AB7-03C8D0F69B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947F0E2-EC03-47EF-A30C-35A4A9CA01E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PDFTables.com" sheetId="1" r:id="rId1"/>
+    <sheet name="full table" sheetId="1" r:id="rId1"/>
+    <sheet name="Heckel" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Heckel</t>
   </si>
@@ -436,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1380,4 +1394,527 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0A14B4-E86C-4D97-BE0C-9E3DF8D2BDD8}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>3.3464566929133861E-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="E3">
+        <v>12.913385826771654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>7.4803149606299218E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.43307086614173229</v>
+      </c>
+      <c r="E5">
+        <v>16.929133858267718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.12598425196850396</v>
+      </c>
+      <c r="D6">
+        <v>0.48031496062992124</v>
+      </c>
+      <c r="E6">
+        <v>19.133858267716537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.18503937007874016</v>
+      </c>
+      <c r="C7">
+        <v>0.16141732283464566</v>
+      </c>
+      <c r="D7">
+        <v>1.2598425196850394</v>
+      </c>
+      <c r="E7">
+        <v>23.346456692913389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0.26771653543307089</v>
+      </c>
+      <c r="C8">
+        <v>0.23622047244094491</v>
+      </c>
+      <c r="D8">
+        <v>1.4251968503937009</v>
+      </c>
+      <c r="E8">
+        <v>26.45669291338583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="C9">
+        <v>0.18110236220472439</v>
+      </c>
+      <c r="D9">
+        <v>1.4173228346456694</v>
+      </c>
+      <c r="E9">
+        <v>27.99212598425197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1456692913385827</v>
+      </c>
+      <c r="D10">
+        <v>0.53149606299212604</v>
+      </c>
+      <c r="E10">
+        <v>30.551181102362207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.17716535433070868</v>
+      </c>
+      <c r="C11">
+        <v>0.16929133858267717</v>
+      </c>
+      <c r="D11">
+        <v>0.98425196850393704</v>
+      </c>
+      <c r="E11">
+        <v>32.637795275590555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="D12">
+        <v>0.49212598425196852</v>
+      </c>
+      <c r="E12">
+        <v>34.4488188976378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="C13">
+        <v>0.17716535433070868</v>
+      </c>
+      <c r="D13">
+        <v>0.98425196850393704</v>
+      </c>
+      <c r="E13">
+        <v>34.527559055118111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.17716535433070868</v>
+      </c>
+      <c r="C14">
+        <v>0.17322834645669294</v>
+      </c>
+      <c r="D14">
+        <v>0.86614173228346458</v>
+      </c>
+      <c r="E14">
+        <v>36.377952755905511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.26771653543307089</v>
+      </c>
+      <c r="C15">
+        <v>0.25984251968503935</v>
+      </c>
+      <c r="D15">
+        <v>0.94488188976377963</v>
+      </c>
+      <c r="E15">
+        <v>37.322834645669296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.26377952755905515</v>
+      </c>
+      <c r="D16">
+        <v>1.2007874015748032</v>
+      </c>
+      <c r="E16">
+        <v>40.15748031496063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.3346456692913386</v>
+      </c>
+      <c r="D17">
+        <v>0.57086614173228345</v>
+      </c>
+      <c r="E17">
+        <v>45.984251968503941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.11811023622047245</v>
+      </c>
+      <c r="D18">
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="E18">
+        <v>50.905511811023622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.46062992125984253</v>
+      </c>
+      <c r="D19">
+        <v>0.55905511811023623</v>
+      </c>
+      <c r="E19">
+        <v>50.944881889763785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.53149606299212604</v>
+      </c>
+      <c r="D20">
+        <v>0.64173228346456701</v>
+      </c>
+      <c r="E20">
+        <v>53.622047244094489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.27559055118110237</v>
+      </c>
+      <c r="D21">
+        <v>0.51181102362204722</v>
+      </c>
+      <c r="E21">
+        <v>56.2992125984252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.30314960629921262</v>
+      </c>
+      <c r="D22">
+        <v>0.55118110236220474</v>
+      </c>
+      <c r="E22">
+        <v>56.45669291338583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.18110236220472439</v>
+      </c>
+      <c r="D23">
+        <v>0.51968503937007871</v>
+      </c>
+      <c r="E23">
+        <v>57.44094488188977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.18110236220472439</v>
+      </c>
+      <c r="D24">
+        <v>0.51968503937007871</v>
+      </c>
+      <c r="E24">
+        <v>57.716535433070867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.58267716535433078</v>
+      </c>
+      <c r="D25">
+        <v>0.9055118110236221</v>
+      </c>
+      <c r="E25">
+        <v>61.181102362204726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.58267716535433078</v>
+      </c>
+      <c r="D26">
+        <v>0.11811023622047245</v>
+      </c>
+      <c r="E26">
+        <v>66.102362204724415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.53149606299212604</v>
+      </c>
+      <c r="D27">
+        <v>0.16535433070866143</v>
+      </c>
+      <c r="E27">
+        <v>70.551181102362207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.57086614173228345</v>
+      </c>
+      <c r="D28">
+        <v>0.11811023622047245</v>
+      </c>
+      <c r="E28">
+        <v>74.606299212598429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.58661417322834652</v>
+      </c>
+      <c r="D29">
+        <v>0.16929133858267717</v>
+      </c>
+      <c r="E29">
+        <v>80.629921259842519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.70472440944881887</v>
+      </c>
+      <c r="D30">
+        <v>0.18110236220472439</v>
+      </c>
+      <c r="E30">
+        <v>85.787401574803155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.59842519685039375</v>
+      </c>
+      <c r="D31">
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="E31">
+        <v>91.69291338582677</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>